--- a/project-05/onedrive-db/src/cie10.xlsx
+++ b/project-05/onedrive-db/src/cie10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13c0fce16975a509/Proyectos R/hazla-con-datos/project-05/google-db/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13c0fce16975a509/Proyectos-R/hazla-con-datos/project-05/onedrive-db/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1189A8A4-84C7-4CF2-9C89-91480C21D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{1189A8A4-84C7-4CF2-9C89-91480C21D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0576A3CA-5E0E-431E-8337-F81270488B9A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{2E39348A-7E86-48D6-859F-220CE197A421}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>Código CIE-10</t>
   </si>
@@ -189,6 +189,36 @@
   </si>
   <si>
     <t>Sí</t>
+  </si>
+  <si>
+    <t>E66.9</t>
+  </si>
+  <si>
+    <t>Obesidad, no especificada</t>
+  </si>
+  <si>
+    <t>I50</t>
+  </si>
+  <si>
+    <t>Insuficiencia cardiaca</t>
+  </si>
+  <si>
+    <t>J20.9</t>
+  </si>
+  <si>
+    <t>Bronquitis aguda, no especificada</t>
+  </si>
+  <si>
+    <t>K21.9</t>
+  </si>
+  <si>
+    <t>Enfermedad por reflujo gastroesofágico sin esofagitis</t>
+  </si>
+  <si>
+    <t>I25.10</t>
+  </si>
+  <si>
+    <t>Aterosclerosis de arteria coronaria, sin angina de pecho</t>
   </si>
 </sst>
 </file>
@@ -241,6 +271,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E073C2E-B5DA-4B95-B144-6255084041A9}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,6 +874,61 @@
         <v>50</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
